--- a/medicine/Pharmacie/Classe_ATC_R03/Classe_ATC_R03.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_R03/Classe_ATC_R03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC R03, dénommée « Médicaments pour les maladies obstructives des voies respiratoires », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC R03, dénommée « Médicaments pour les maladies obstructives des voies respiratoires », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
 </t>
         </is>
       </c>
@@ -513,13 +525,86 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>R03AA Agonistes des alpha- et bêta-adrénorécepteurs
-R03AA01 Épinéphrine (Adrénaline)
-R03AB Agonistes non-sélectifs des bêta-adrénorécepteurs
-R03AB02 Isoprénaline
-R03AB03 Orciprénaline (en)
-R03AC Agonistes sélectifs des bêta2-adrénorécepteurs
-R03AC02 Salbutamol
+          <t>R03AA Agonistes des alpha- et bêta-adrénorécepteurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R03AA01 Épinéphrine (Adrénaline)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R03A Adrénergiques en inhalation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R03AB Agonistes non-sélectifs des bêta-adrénorécepteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R03AB02 Isoprénaline
+R03AB03 Orciprénaline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R03A Adrénergiques en inhalation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>R03AC Agonistes sélectifs des bêta2-adrénorécepteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R03AC02 Salbutamol
 R03AC03 Terbutaline
 R03AC04 Fénotérol (en)
 R03AC05 Rimitérol (en)
@@ -536,11 +621,79 @@
 R03AC16 Procatérol (en)
 R03AC17 Bitoltérol (en)
 R03AC18 Indacatérol
-R03AC19 Olodatérol
-R03AH Associations d'adrénergiques
-Classe vide.
-R03AK Adrénergiques en association avec des corticostéroïdes et d'autres principes actifs, à l'exclusion des anticholinergiques
-R03AK01 Adrénaline avec d'autres substances pour les maladies obstructives des voies respiratoires
+R03AC19 Olodatérol</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R03A Adrénergiques en inhalation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>R03AH Associations d'adrénergiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R03A Adrénergiques en inhalation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>R03AK Adrénergiques en association avec des corticostéroïdes et d'autres principes actifs, à l'exclusion des anticholinergiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>R03AK01 Adrénaline avec d'autres substances pour les maladies obstructives des voies respiratoires
 R03AK02 Isoprénaline avec d'autres substances pour les maladies obstructives des voies respiratoires
 R03AK04 Salbutamol et cromoglicate de sodium
 R03AK05 Réprotérol et cromoglicate de sodium
@@ -551,9 +704,43 @@
 R03AK10 Vilantérol et furoate de fluticasone (en)
 R03AK11 Formotérol et fluticasone
 R03AK12 Salmétérol et budésonide
-R03AK13 Salbutamol et beclométasone
-R03AL Adrénergiques en association avec un anticholinergique incluant les triple-associations avec des corticostéroïdes
-R03AL01 Fénotérol et bromure d'ipratropium
+R03AK13 Salbutamol et beclométasone</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R03A Adrénergiques en inhalation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>R03AL Adrénergiques en association avec un anticholinergique incluant les triple-associations avec des corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>R03AL01 Fénotérol et bromure d'ipratropium
 R03AL02 Salbutamol et bromure d'étipratropium
 R03AL03 Vilantérol et bromure d'uméclidinium (en)
 R03AL04 Indacatérol et bromure de glycopyrronium
@@ -565,34 +752,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_R03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>R03B Autres médicaments en inhalation pour les maladies obstructives des voies respiratoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>R03BA Glucocorticoïdes
-R03BA01 Béclométasone
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>R03BA Glucocorticoïdes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>R03BA01 Béclométasone
 R03BA02 Budésonide
 R03BA03 Flunisolide (en)
 R03BA04 Bétaméthasone
@@ -600,60 +792,235 @@
 R03BA06 Triamcinolone
 R03BA07 Furoate de mométasone (en)
 R03BA08 Ciclésonide
-R03BA09 Furoate de fluticasone
-R03BB Anticholinergiques
-R03BB01 Bromure d'ipratropium
+R03BA09 Furoate de fluticasone</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>R03B Autres médicaments en inhalation pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>R03BB Anticholinergiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>R03BB01 Bromure d'ipratropium
 R03BB02 Bromure d'oxitropium (en)
 R03BB03 préparations à base de stramoine
 R03BB04 Bromure de tiotropium
 R03BB05 Bromure d'aclidinium (en)
 R03BB06 Bromure de glycopyrronium
 R03BB07 Bromure d'uméclidinium (en)
-R03BB54 Bromure de tiotropium, associations
-R03BC Agents antiallergiques, à l'exclusion des corticostéroïdes
-R03BC01 Acide cromoglicique
-R03BC03 NédocromilNédocromil
-R03BX Autres médicaments en inhalation pour les maladies obstructives des voies respiratoires
-R03BX01 Fenspiride</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_R03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+R03BB54 Bromure de tiotropium, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>R03B Autres médicaments en inhalation pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R03BC Agents antiallergiques, à l'exclusion des corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>R03BC01 Acide cromoglicique
+R03BC03 NédocromilNédocromil</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>R03B Autres médicaments en inhalation pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>R03BX Autres médicaments en inhalation pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>R03BX01 Fenspiride</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>R03C Adrénergiques pour usage systémique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R03CA Agonistes des alpha- et bêta-adrénorécepteurs
-R03CA02 Éphédrine
-R03CB Agonistes non-sélectifs des bêta-adrénorécepteurs
-R03CB01 Isoprénaline
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>R03CA Agonistes des alpha- et bêta-adrénorécepteurs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>R03CA02 Éphédrine</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>R03C Adrénergiques pour usage systémique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>R03CB Agonistes non-sélectifs des bêta-adrénorécepteurs</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>R03CB01 Isoprénaline
 R03CB02 Méthoxyphénamine (en)
 R03CB03 Orciprénaline (en)
 R03CB51 Isoprénaline, associations
-R03CB53 Orciprénaline, asoociations
-R03CC Agonistes sélectifs des bêta-2-adrénorécepteurs
-R03CC02 Salbutamol
+R03CB53 Orciprénaline, asoociations</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>R03C Adrénergiques pour usage systémique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>R03CC Agonistes sélectifs des bêta-2-adrénorécepteurs</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>R03CC02 Salbutamol
 R03CC03 Terbutaline
 R03CC04 Fénotérol (en)
 R03CC05 Hexoprénaline (en)
@@ -667,41 +1034,80 @@
 R03CC13 Clenbutérol
 R03CC14 Réprotérol (en)
 R03CC53 Terbutaline, associations
-QR03CC90 Clenbutérol, associations
-R03CK Adrénergiques et autres médicaments pour les maladies obstructives des voies respiratoires
-Vide.
+QR03CC90 Clenbutérol, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>R03C Adrénergiques pour usage systémique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>R03CK Adrénergiques et autres médicaments pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_R03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>R03D Autres médicaments systémiques pour les maladies obstructives des voies respiratoires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>R03DA Xanthines
-R03DA01 Diprophylline (en)
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R03DA Xanthines</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>R03DA01 Diprophylline (en)
 R03DA02 Théophyllinate de choline (en)
 R03DA03 Proxyphylline (en)
 R03DA04 Théophylline
@@ -718,22 +1124,124 @@
 R03DA54 Théophylline, associations excluant psycholeptiques
 R03DA55 Aminophylline, associations
 R03DA57 Théobromine, associations
-R03DA74 Théophylline, associations avec psycholeptiques
-R03DB Xanthines et adrénergiques
-R03DB01 Diprophylline et adrénergiques
+R03DA74 Théophylline, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>R03D Autres médicaments systémiques pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R03DB Xanthines et adrénergiques</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>R03DB01 Diprophylline et adrénergiques
 R03DB02 Théophyllinate de choline et adrénergiques
 R03DB03 Proxyphylline et adrénergiques
 R03DB04 Théophylline et adrénergiques
 R03DB05 Aminophylline et adrénergiques
-R03DB06 Étamiphylline et adrénergiques
-R03DC Antagonistes des récepteurs des leucotriènes
-R03DC01 Zafirlukast (en)
+R03DB06 Étamiphylline et adrénergiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>R03D Autres médicaments systémiques pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>R03DC Antagonistes des récepteurs des leucotriènes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>R03DC01 Zafirlukast (en)
 R03DC02 Pranlukast (en)
 R03DC03 Montélukast
 R03DC04 Ibudilast (en)
-R03DC53 Montélukast, associations
-R03DX Autres médicaments systémiques pour les maladies obstructives des voies respiratoires
-R03DX01 Amlexanox (en)
+R03DC53 Montélukast, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>R03D Autres médicaments systémiques pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R03DX Autres médicaments systémiques pour les maladies obstructives des voies respiratoires</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>R03DX01 Amlexanox (en)
 R03DX02 Éprozinol (en)
 R03DX03 Fenspiride
 R03DX05 Omalizumab
